--- a/documentos/Entrega 1/Matemática Disceta/TABELA VERDADE.xlsx
+++ b/documentos/Entrega 1/Matemática Disceta/TABELA VERDADE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matemática Discreta\PI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9605767-DA1B-4B91-B58A-2E54B59999EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D3743D-AD22-4B35-A2E1-A4392DB2C75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{747C2725-BD69-4BEF-ABBA-4F236F1535EB}"/>
   </bookViews>
@@ -267,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +284,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
@@ -510,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,11 +556,50 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,16 +607,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,27 +637,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,46 +658,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -990,454 +1007,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43B94F5-889C-42FE-B777-8C0E6B7A020A}">
-  <dimension ref="B2:W58"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
-    <col min="2" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="8.88671875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="24" width="8.88671875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="I2" s="19" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="I2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="R2" s="26" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="R2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="28"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" spans="2:23" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="I3" s="21" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="I3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="21" t="s">
+      <c r="S3" s="38"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="25"/>
-      <c r="I4" s="13" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="I4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="36" t="s">
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="25"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="30"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="15" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="25"/>
-      <c r="I5" s="15" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="I5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="25"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="35" t="s">
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
-      <c r="I6" s="17" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="I6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="29"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="33"/>
       <c r="P6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="15" t="s">
+      <c r="S6" s="29"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="25"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="30"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="18" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="29"/>
-    </row>
+      <c r="V7" s="32"/>
+      <c r="W7" s="33"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="I10" s="26" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="I10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="27"/>
-      <c r="T10" s="28"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="24"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="30" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="I11" s="30" t="s">
+      <c r="F11" s="14"/>
+      <c r="I11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="39" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="I12" s="30" t="s">
+      <c r="F12" s="14"/>
+      <c r="I12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="39" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="30" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="I13" s="30" t="s">
+      <c r="F13" s="14"/>
+      <c r="I13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="39" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="30" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="30" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="30" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="K17" s="47" t="s">
+      <c r="F17" s="14"/>
+      <c r="K17" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="30" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="K18" s="30" t="s">
+      <c r="F18" s="14"/>
+      <c r="K18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="30" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="30" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="30"/>
-    </row>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="24"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="44" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="M25" s="45"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="44" t="s">
+      <c r="M25" s="19"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="44" t="s">
+      <c r="P25" s="19"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="S25" s="45"/>
-      <c r="T25" s="46"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="20"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
@@ -1473,24 +1495,24 @@
       <c r="L26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="43" t="s">
+      <c r="M26" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="43"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="43" t="s">
+      <c r="P26" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Q26" s="43"/>
+      <c r="Q26" s="17"/>
       <c r="R26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S26" s="43" t="s">
+      <c r="S26" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="T26" s="43"/>
+      <c r="T26" s="17"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
@@ -1526,24 +1548,24 @@
       <c r="L27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" s="42"/>
+      <c r="M27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="13"/>
       <c r="O27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P27" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="42"/>
+      <c r="P27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="13"/>
       <c r="R27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="S27" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T27" s="42"/>
+      <c r="S27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27" s="13"/>
       <c r="U27" s="10"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
@@ -1580,24 +1602,24 @@
       <c r="L28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M28" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N28" s="42"/>
+      <c r="M28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="13"/>
       <c r="O28" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P28" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q28" s="42"/>
+      <c r="P28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="13"/>
       <c r="R28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S28" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T28" s="42"/>
+      <c r="S28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="13"/>
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
@@ -1634,24 +1656,24 @@
       <c r="L29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M29" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N29" s="42"/>
+      <c r="M29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" s="13"/>
       <c r="O29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29" s="42"/>
+      <c r="P29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="13"/>
       <c r="R29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S29" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T29" s="42"/>
+      <c r="S29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T29" s="13"/>
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
@@ -1688,24 +1710,24 @@
       <c r="L30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N30" s="42"/>
+      <c r="M30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" s="13"/>
       <c r="O30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q30" s="42"/>
+      <c r="P30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q30" s="13"/>
       <c r="R30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S30" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T30" s="42"/>
+      <c r="S30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T30" s="13"/>
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
@@ -1742,24 +1764,24 @@
       <c r="L31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N31" s="42"/>
+      <c r="M31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N31" s="13"/>
       <c r="O31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q31" s="42"/>
+      <c r="P31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="13"/>
       <c r="R31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="S31" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T31" s="42"/>
+      <c r="S31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T31" s="13"/>
       <c r="U31" s="10"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
@@ -1796,24 +1818,24 @@
       <c r="L32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M32" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N32" s="42"/>
+      <c r="M32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="13"/>
       <c r="O32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P32" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q32" s="42"/>
+      <c r="P32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="13"/>
       <c r="R32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S32" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T32" s="42"/>
+      <c r="S32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T32" s="13"/>
       <c r="U32" s="10"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
@@ -1850,24 +1872,24 @@
       <c r="L33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M33" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N33" s="42"/>
+      <c r="M33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" s="13"/>
       <c r="O33" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P33" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q33" s="42"/>
+      <c r="P33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="13"/>
       <c r="R33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S33" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T33" s="42"/>
+      <c r="S33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T33" s="13"/>
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.3">
@@ -1904,24 +1926,24 @@
       <c r="L34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M34" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N34" s="42"/>
+      <c r="M34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="13"/>
       <c r="O34" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P34" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q34" s="42"/>
+      <c r="P34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q34" s="13"/>
       <c r="R34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S34" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T34" s="42"/>
+      <c r="S34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" s="13"/>
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.3">
@@ -1958,24 +1980,24 @@
       <c r="L35" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N35" s="42"/>
+      <c r="M35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="13"/>
       <c r="O35" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P35" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q35" s="42"/>
+      <c r="P35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q35" s="13"/>
       <c r="R35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="S35" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T35" s="42"/>
+      <c r="S35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T35" s="13"/>
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.3">
@@ -2012,24 +2034,24 @@
       <c r="L36" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M36" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N36" s="42"/>
+      <c r="M36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="13"/>
       <c r="O36" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P36" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q36" s="42"/>
+      <c r="P36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q36" s="13"/>
       <c r="R36" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S36" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T36" s="42"/>
+      <c r="S36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T36" s="13"/>
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
@@ -2066,24 +2088,24 @@
       <c r="L37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N37" s="42"/>
+      <c r="M37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="13"/>
       <c r="O37" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P37" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q37" s="42"/>
+      <c r="P37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q37" s="13"/>
       <c r="R37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S37" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T37" s="42"/>
+      <c r="S37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T37" s="13"/>
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
@@ -2120,24 +2142,24 @@
       <c r="L38" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M38" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N38" s="42"/>
+      <c r="M38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="13"/>
       <c r="O38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q38" s="42"/>
+      <c r="P38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q38" s="13"/>
       <c r="R38" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S38" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T38" s="42"/>
+      <c r="S38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T38" s="13"/>
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
@@ -2174,24 +2196,24 @@
       <c r="L39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M39" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N39" s="42"/>
+      <c r="M39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="13"/>
       <c r="O39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P39" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q39" s="42"/>
+      <c r="P39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q39" s="13"/>
       <c r="R39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="S39" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T39" s="42"/>
+      <c r="S39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39" s="13"/>
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.3">
@@ -2228,24 +2250,24 @@
       <c r="L40" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M40" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N40" s="42"/>
+      <c r="M40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40" s="13"/>
       <c r="O40" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P40" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q40" s="42"/>
+      <c r="P40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q40" s="13"/>
       <c r="R40" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S40" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T40" s="42"/>
+      <c r="S40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40" s="13"/>
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
@@ -2282,24 +2304,24 @@
       <c r="L41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N41" s="42"/>
+      <c r="M41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="13"/>
       <c r="O41" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P41" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q41" s="42"/>
+      <c r="P41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q41" s="13"/>
       <c r="R41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S41" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T41" s="42"/>
+      <c r="S41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T41" s="13"/>
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.3">
@@ -2336,24 +2358,24 @@
       <c r="L42" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M42" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N42" s="42"/>
+      <c r="M42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="13"/>
       <c r="O42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P42" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q42" s="42"/>
+      <c r="P42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q42" s="13"/>
       <c r="R42" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S42" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T42" s="42"/>
+      <c r="S42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T42" s="13"/>
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
@@ -2390,24 +2412,24 @@
       <c r="L43" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M43" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N43" s="42"/>
+      <c r="M43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="13"/>
       <c r="O43" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P43" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q43" s="42"/>
+      <c r="P43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q43" s="13"/>
       <c r="R43" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="S43" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T43" s="42"/>
+      <c r="S43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T43" s="13"/>
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.3">
@@ -2444,24 +2466,24 @@
       <c r="L44" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M44" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N44" s="42"/>
+      <c r="M44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="13"/>
       <c r="O44" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P44" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q44" s="42"/>
+      <c r="P44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q44" s="13"/>
       <c r="R44" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S44" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T44" s="42"/>
+      <c r="S44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T44" s="13"/>
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.3">
@@ -2498,24 +2520,24 @@
       <c r="L45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M45" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N45" s="42"/>
+      <c r="M45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" s="13"/>
       <c r="O45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P45" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q45" s="42"/>
+      <c r="P45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q45" s="13"/>
       <c r="R45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S45" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T45" s="42"/>
+      <c r="S45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T45" s="13"/>
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.3">
@@ -2552,24 +2574,24 @@
       <c r="L46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M46" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N46" s="42"/>
+      <c r="M46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N46" s="13"/>
       <c r="O46" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P46" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q46" s="42"/>
+      <c r="P46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q46" s="13"/>
       <c r="R46" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S46" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T46" s="42"/>
+      <c r="S46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T46" s="13"/>
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.3">
@@ -2606,24 +2628,24 @@
       <c r="L47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M47" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N47" s="42"/>
+      <c r="M47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N47" s="13"/>
       <c r="O47" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P47" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q47" s="42"/>
+      <c r="P47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="13"/>
       <c r="R47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="S47" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T47" s="42"/>
+      <c r="S47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T47" s="13"/>
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.3">
@@ -2660,24 +2682,24 @@
       <c r="L48" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M48" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N48" s="42"/>
+      <c r="M48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="13"/>
       <c r="O48" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P48" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q48" s="42"/>
+      <c r="P48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="13"/>
       <c r="R48" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S48" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T48" s="42"/>
+      <c r="S48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T48" s="13"/>
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.3">
@@ -2714,24 +2736,24 @@
       <c r="L49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M49" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N49" s="42"/>
+      <c r="M49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="13"/>
       <c r="O49" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P49" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q49" s="42"/>
+      <c r="P49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="13"/>
       <c r="R49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S49" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T49" s="42"/>
+      <c r="S49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T49" s="13"/>
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.3">
@@ -2768,24 +2790,24 @@
       <c r="L50" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M50" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N50" s="42"/>
+      <c r="M50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N50" s="13"/>
       <c r="O50" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P50" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q50" s="42"/>
+      <c r="P50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q50" s="13"/>
       <c r="R50" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S50" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T50" s="42"/>
+      <c r="S50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T50" s="13"/>
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.3">
@@ -2822,24 +2844,24 @@
       <c r="L51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M51" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N51" s="42"/>
+      <c r="M51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N51" s="13"/>
       <c r="O51" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P51" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q51" s="42"/>
+      <c r="P51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q51" s="13"/>
       <c r="R51" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="S51" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T51" s="42"/>
+      <c r="S51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T51" s="13"/>
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.3">
@@ -2876,24 +2898,24 @@
       <c r="L52" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M52" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N52" s="42"/>
+      <c r="M52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N52" s="13"/>
       <c r="O52" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P52" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q52" s="42"/>
+      <c r="P52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q52" s="13"/>
       <c r="R52" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S52" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T52" s="42"/>
+      <c r="S52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T52" s="13"/>
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.3">
@@ -2930,24 +2952,24 @@
       <c r="L53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M53" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N53" s="42"/>
+      <c r="M53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N53" s="13"/>
       <c r="O53" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P53" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q53" s="42"/>
+      <c r="P53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q53" s="13"/>
       <c r="R53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S53" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T53" s="42"/>
+      <c r="S53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T53" s="13"/>
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.3">
@@ -2984,24 +3006,24 @@
       <c r="L54" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M54" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N54" s="42"/>
+      <c r="M54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N54" s="13"/>
       <c r="O54" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P54" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q54" s="42"/>
+      <c r="P54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q54" s="13"/>
       <c r="R54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S54" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T54" s="42"/>
+      <c r="S54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T54" s="13"/>
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.3">
@@ -3038,24 +3060,24 @@
       <c r="L55" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M55" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N55" s="42"/>
+      <c r="M55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N55" s="13"/>
       <c r="O55" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P55" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q55" s="42"/>
+      <c r="P55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q55" s="13"/>
       <c r="R55" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="S55" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="T55" s="42"/>
+      <c r="S55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T55" s="13"/>
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.3">
@@ -3092,24 +3114,24 @@
       <c r="L56" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M56" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N56" s="42"/>
+      <c r="M56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N56" s="13"/>
       <c r="O56" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P56" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q56" s="42"/>
+      <c r="P56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q56" s="13"/>
       <c r="R56" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S56" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T56" s="42"/>
+      <c r="S56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T56" s="13"/>
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.3">
@@ -3146,24 +3168,24 @@
       <c r="L57" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M57" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N57" s="42"/>
+      <c r="M57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N57" s="13"/>
       <c r="O57" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P57" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q57" s="42"/>
+      <c r="P57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q57" s="13"/>
       <c r="R57" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S57" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T57" s="42"/>
+      <c r="S57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T57" s="13"/>
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.3">
@@ -3200,37 +3222,163 @@
       <c r="L58" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M58" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N58" s="42"/>
+      <c r="M58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N58" s="13"/>
       <c r="O58" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P58" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q58" s="42"/>
+      <c r="P58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q58" s="13"/>
       <c r="R58" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S58" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T58" s="42"/>
+      <c r="S58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T58" s="13"/>
       <c r="U58" s="10"/>
     </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B24:T24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="K17:M17"/>
     <mergeCell ref="S53:T53"/>
@@ -3255,137 +3403,15 @@
     <mergeCell ref="S29:T29"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B24:T24"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/Entrega 1/Matemática Disceta/TABELA VERDADE.xlsx
+++ b/documentos/Entrega 1/Matemática Disceta/TABELA VERDADE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matemática Discreta\PI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D3743D-AD22-4B35-A2E1-A4392DB2C75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F7DF1DF-185F-403C-B36D-EDFBBA435FCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{747C2725-BD69-4BEF-ABBA-4F236F1535EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="0" xr2:uid="{747C2725-BD69-4BEF-ABBA-4F236F1535EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="76">
   <si>
     <t>SENSORES</t>
   </si>
@@ -261,13 +250,16 @@
   </si>
   <si>
     <t>2^N° DE PREPOSIÇÕES = 32</t>
+  </si>
+  <si>
+    <t>Se NÃO TIVER MOVIMENTO  EM #1 ENTÃO DESLIGAR LÂMPADA E TV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,21 +999,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43B94F5-889C-42FE-B777-8C0E6B7A020A}">
-  <dimension ref="A1:W62"/>
+  <dimension ref="B2:W58"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
-    <col min="2" max="24" width="8.88671875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1" hidden="1"/>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="17" width="8.875" style="1"/>
+    <col min="18" max="18" width="8.875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23">
       <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1041,7 @@
       <c r="V2" s="22"/>
       <c r="W2" s="24"/>
     </row>
-    <row r="3" spans="2:23" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" ht="19.149999999999999" customHeight="1">
       <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1079,7 @@
       <c r="V3" s="38"/>
       <c r="W3" s="39"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23">
       <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1117,7 @@
       <c r="V4" s="29"/>
       <c r="W4" s="30"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23">
       <c r="B5" s="28" t="s">
         <v>4</v>
       </c>
@@ -1163,7 +1155,7 @@
       <c r="V5" s="35"/>
       <c r="W5" s="36"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23">
       <c r="B6" s="31" t="s">
         <v>44</v>
       </c>
@@ -1199,7 +1191,7 @@
       <c r="V6" s="29"/>
       <c r="W6" s="30"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23">
       <c r="R7" s="31" t="s">
         <v>43</v>
       </c>
@@ -1211,9 +1203,7 @@
       <c r="V7" s="32"/>
       <c r="W7" s="33"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23">
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1228,7 @@
       <c r="S10" s="22"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23">
       <c r="B11" s="46" t="s">
         <v>18</v>
       </c>
@@ -1249,7 +1239,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -1265,7 +1255,7 @@
       <c r="S11" s="26"/>
       <c r="T11" s="27"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23">
       <c r="B12" s="46" t="s">
         <v>19</v>
       </c>
@@ -1292,7 +1282,7 @@
       <c r="S12" s="26"/>
       <c r="T12" s="27"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23">
       <c r="B13" s="46" t="s">
         <v>20</v>
       </c>
@@ -1319,7 +1309,7 @@
       <c r="S13" s="26"/>
       <c r="T13" s="27"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23">
       <c r="B14" s="46" t="s">
         <v>21</v>
       </c>
@@ -1330,7 +1320,7 @@
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23">
       <c r="B15" s="46" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1331,7 @@
       </c>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23">
       <c r="B16" s="46" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1342,7 @@
       </c>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21">
       <c r="B17" s="46" t="s">
         <v>47</v>
       </c>
@@ -1368,7 +1358,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21">
       <c r="B18" s="46" t="s">
         <v>48</v>
       </c>
@@ -1384,7 +1374,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21">
       <c r="B19" s="46" t="s">
         <v>24</v>
       </c>
@@ -1395,7 +1385,7 @@
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21">
       <c r="B20" s="46" t="s">
         <v>25</v>
       </c>
@@ -1406,10 +1396,7 @@
       </c>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21">
       <c r="B24" s="21" t="s">
         <v>55</v>
       </c>
@@ -1432,7 +1419,7 @@
       <c r="S24" s="22"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21">
       <c r="B25" s="43" t="s">
         <v>56</v>
       </c>
@@ -1461,7 +1448,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" ht="15">
       <c r="B26" s="8" t="s">
         <v>65</v>
       </c>
@@ -1514,7 +1501,7 @@
       </c>
       <c r="T26" s="17"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21">
       <c r="B27" s="9" t="s">
         <v>57</v>
       </c>
@@ -1568,7 +1555,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21">
       <c r="B28" s="9" t="s">
         <v>57</v>
       </c>
@@ -1622,7 +1609,7 @@
       <c r="T28" s="13"/>
       <c r="U28" s="10"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21">
       <c r="B29" s="9" t="s">
         <v>57</v>
       </c>
@@ -1676,7 +1663,7 @@
       <c r="T29" s="13"/>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21">
       <c r="B30" s="9" t="s">
         <v>57</v>
       </c>
@@ -1730,7 +1717,7 @@
       <c r="T30" s="13"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21">
       <c r="B31" s="9" t="s">
         <v>57</v>
       </c>
@@ -1784,7 +1771,7 @@
       <c r="T31" s="13"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21">
       <c r="B32" s="9" t="s">
         <v>57</v>
       </c>
@@ -1838,7 +1825,7 @@
       <c r="T32" s="13"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21">
       <c r="B33" s="9" t="s">
         <v>57</v>
       </c>
@@ -1892,7 +1879,7 @@
       <c r="T33" s="13"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21">
       <c r="B34" s="9" t="s">
         <v>57</v>
       </c>
@@ -1946,7 +1933,7 @@
       <c r="T34" s="13"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:21">
       <c r="B35" s="9" t="s">
         <v>57</v>
       </c>
@@ -2000,7 +1987,7 @@
       <c r="T35" s="13"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:21">
       <c r="B36" s="9" t="s">
         <v>57</v>
       </c>
@@ -2054,7 +2041,7 @@
       <c r="T36" s="13"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:21">
       <c r="B37" s="9" t="s">
         <v>57</v>
       </c>
@@ -2108,7 +2095,7 @@
       <c r="T37" s="13"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:21">
       <c r="B38" s="9" t="s">
         <v>57</v>
       </c>
@@ -2162,7 +2149,7 @@
       <c r="T38" s="13"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:21">
       <c r="B39" s="9" t="s">
         <v>57</v>
       </c>
@@ -2216,7 +2203,7 @@
       <c r="T39" s="13"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:21">
       <c r="B40" s="9" t="s">
         <v>57</v>
       </c>
@@ -2270,7 +2257,7 @@
       <c r="T40" s="13"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:21">
       <c r="B41" s="9" t="s">
         <v>57</v>
       </c>
@@ -2324,7 +2311,7 @@
       <c r="T41" s="13"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:21">
       <c r="B42" s="9" t="s">
         <v>57</v>
       </c>
@@ -2378,7 +2365,7 @@
       <c r="T42" s="13"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:21">
       <c r="B43" s="9" t="s">
         <v>58</v>
       </c>
@@ -2432,7 +2419,7 @@
       <c r="T43" s="13"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:21">
       <c r="B44" s="9" t="s">
         <v>58</v>
       </c>
@@ -2486,7 +2473,7 @@
       <c r="T44" s="13"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:21">
       <c r="B45" s="9" t="s">
         <v>58</v>
       </c>
@@ -2540,7 +2527,7 @@
       <c r="T45" s="13"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:21">
       <c r="B46" s="9" t="s">
         <v>58</v>
       </c>
@@ -2594,7 +2581,7 @@
       <c r="T46" s="13"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:21">
       <c r="B47" s="9" t="s">
         <v>58</v>
       </c>
@@ -2648,7 +2635,7 @@
       <c r="T47" s="13"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:21">
       <c r="B48" s="9" t="s">
         <v>58</v>
       </c>
@@ -2702,7 +2689,7 @@
       <c r="T48" s="13"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:21">
       <c r="B49" s="9" t="s">
         <v>58</v>
       </c>
@@ -2756,7 +2743,7 @@
       <c r="T49" s="13"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:21">
       <c r="B50" s="9" t="s">
         <v>58</v>
       </c>
@@ -2810,7 +2797,7 @@
       <c r="T50" s="13"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:21">
       <c r="B51" s="9" t="s">
         <v>58</v>
       </c>
@@ -2864,7 +2851,7 @@
       <c r="T51" s="13"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:21">
       <c r="B52" s="9" t="s">
         <v>58</v>
       </c>
@@ -2918,7 +2905,7 @@
       <c r="T52" s="13"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:21">
       <c r="B53" s="9" t="s">
         <v>58</v>
       </c>
@@ -2972,7 +2959,7 @@
       <c r="T53" s="13"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:21">
       <c r="B54" s="9" t="s">
         <v>58</v>
       </c>
@@ -3026,7 +3013,7 @@
       <c r="T54" s="13"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:21">
       <c r="B55" s="9" t="s">
         <v>58</v>
       </c>
@@ -3080,7 +3067,7 @@
       <c r="T55" s="13"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:21">
       <c r="B56" s="9" t="s">
         <v>58</v>
       </c>
@@ -3134,7 +3121,7 @@
       <c r="T56" s="13"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:21">
       <c r="B57" s="9" t="s">
         <v>58</v>
       </c>
@@ -3188,7 +3175,7 @@
       <c r="T57" s="13"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:21">
       <c r="B58" s="9" t="s">
         <v>58</v>
       </c>
@@ -3242,10 +3229,6 @@
       <c r="T58" s="13"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="164">
     <mergeCell ref="I4:K4"/>
